--- a/data/trans_orig/IP19C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33649010-D5AE-439A-9F27-950C45A2DF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55558530-2FDF-45A8-BA81-8E755C4ACCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{93FFA7A0-90CF-4F0A-BB5A-B168BDB0AC7F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C2D975EE-265E-4213-AC10-EF0EDCA2FE8B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -122,6 +122,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -179,63 +236,6 @@
     <t>10,34%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
     <t>93,33%</t>
   </si>
   <si>
@@ -326,6 +326,60 @@
     <t>12,64%</t>
   </si>
   <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
     <t>92,27%</t>
   </si>
   <si>
@@ -374,60 +428,6 @@
     <t>9,72%</t>
   </si>
   <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
     <t>91,15%</t>
   </si>
   <si>
@@ -509,6 +509,60 @@
     <t>20,26%</t>
   </si>
   <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
     <t>75,55%</t>
   </si>
   <si>
@@ -563,60 +617,6 @@
     <t>26,47%</t>
   </si>
   <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
     <t>80,45%</t>
   </si>
   <si>
@@ -728,6 +728,60 @@
     <t>49,06%</t>
   </si>
   <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
     <t>64,66%</t>
   </si>
   <si>
@@ -780,60 +834,6 @@
   </si>
   <si>
     <t>38,35%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
   </si>
   <si>
     <t>66,29%</t>
@@ -1279,7 +1279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637A58EE-4048-4791-B9F4-3196051033C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F14E24E-A2BD-405B-B9A4-520E9BABB6C2}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1552,10 +1552,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="D7" s="7">
-        <v>212665</v>
+        <v>105778</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
@@ -1567,10 +1567,10 @@
         <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>301</v>
+        <v>148</v>
       </c>
       <c r="I7" s="7">
-        <v>203196</v>
+        <v>100211</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -1582,10 +1582,10 @@
         <v>33</v>
       </c>
       <c r="M7" s="7">
-        <v>619</v>
+        <v>309</v>
       </c>
       <c r="N7" s="7">
-        <v>415861</v>
+        <v>205989</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>34</v>
@@ -1603,10 +1603,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>17715</v>
+        <v>5938</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -1618,10 +1618,10 @@
         <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>19434</v>
+        <v>5859</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>40</v>
@@ -1633,10 +1633,10 @@
         <v>42</v>
       </c>
       <c r="M8" s="7">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>37149</v>
+        <v>11797</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>43</v>
@@ -1654,10 +1654,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>230380</v>
+        <v>111716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -1669,10 +1669,10 @@
         <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>222630</v>
+        <v>106070</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -1684,10 +1684,10 @@
         <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>674</v>
+        <v>327</v>
       </c>
       <c r="N9" s="7">
-        <v>453010</v>
+        <v>217786</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -1707,10 +1707,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>161</v>
+        <v>318</v>
       </c>
       <c r="D10" s="7">
-        <v>105778</v>
+        <v>212665</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>47</v>
@@ -1722,10 +1722,10 @@
         <v>49</v>
       </c>
       <c r="H10" s="7">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c r="I10" s="7">
-        <v>100211</v>
+        <v>203196</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>50</v>
@@ -1737,10 +1737,10 @@
         <v>52</v>
       </c>
       <c r="M10" s="7">
-        <v>309</v>
+        <v>619</v>
       </c>
       <c r="N10" s="7">
-        <v>205989</v>
+        <v>415861</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>53</v>
@@ -1758,10 +1758,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>5938</v>
+        <v>17715</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>56</v>
@@ -1773,10 +1773,10 @@
         <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>5859</v>
+        <v>19434</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>59</v>
@@ -1788,10 +1788,10 @@
         <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="N11" s="7">
-        <v>11797</v>
+        <v>37149</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>62</v>
@@ -1809,10 +1809,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>344</v>
       </c>
       <c r="D12" s="7">
-        <v>111716</v>
+        <v>230380</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -1824,10 +1824,10 @@
         <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>157</v>
+        <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>106070</v>
+        <v>222630</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -1839,10 +1839,10 @@
         <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>327</v>
+        <v>674</v>
       </c>
       <c r="N12" s="7">
-        <v>217786</v>
+        <v>453010</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -2025,7 +2025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689520BB-6A80-4BF4-A6A1-3229C57C99CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BA92AB-001C-4986-8C41-5074BFD41ACB}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2298,10 +2298,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="D7" s="7">
-        <v>202636</v>
+        <v>126448</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>95</v>
@@ -2313,10 +2313,10 @@
         <v>97</v>
       </c>
       <c r="H7" s="7">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="I7" s="7">
-        <v>197543</v>
+        <v>120843</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>98</v>
@@ -2325,22 +2325,22 @@
         <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="M7" s="7">
-        <v>582</v>
+        <v>342</v>
       </c>
       <c r="N7" s="7">
-        <v>400179</v>
+        <v>247292</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,49 +2349,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>16981</v>
+        <v>6230</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>15630</v>
+        <v>3535</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>32611</v>
+        <v>9765</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>324</v>
+        <v>181</v>
       </c>
       <c r="D9" s="7">
-        <v>219617</v>
+        <v>132678</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -2415,10 +2415,10 @@
         <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>305</v>
+        <v>174</v>
       </c>
       <c r="I9" s="7">
-        <v>213173</v>
+        <v>124378</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -2430,10 +2430,10 @@
         <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>629</v>
+        <v>355</v>
       </c>
       <c r="N9" s="7">
-        <v>432790</v>
+        <v>257057</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -2453,49 +2453,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>173</v>
+        <v>299</v>
       </c>
       <c r="D10" s="7">
-        <v>126448</v>
+        <v>202636</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="I10" s="7">
-        <v>120843</v>
+        <v>197543</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
-        <v>342</v>
+        <v>582</v>
       </c>
       <c r="N10" s="7">
-        <v>247292</v>
+        <v>400179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,40 +2504,40 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>6230</v>
+        <v>16981</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>3535</v>
+        <v>15630</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>125</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N11" s="7">
-        <v>9765</v>
+        <v>32611</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>126</v>
@@ -2555,10 +2555,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>132678</v>
+        <v>219617</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -2570,10 +2570,10 @@
         <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="I12" s="7">
-        <v>124378</v>
+        <v>213173</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -2585,10 +2585,10 @@
         <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>355</v>
+        <v>629</v>
       </c>
       <c r="N12" s="7">
-        <v>257057</v>
+        <v>432790</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -2614,7 +2614,7 @@
         <v>342791</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>129</v>
@@ -2665,7 +2665,7 @@
         <v>23211</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>137</v>
@@ -2771,7 +2771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6A9E87-7AB7-43A2-99EC-B07D23BF5956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65653BC-8158-4565-8281-9423464CBBF2}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3044,10 +3044,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="D7" s="7">
-        <v>169694</v>
+        <v>117967</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>156</v>
@@ -3059,10 +3059,10 @@
         <v>158</v>
       </c>
       <c r="H7" s="7">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="I7" s="7">
-        <v>174135</v>
+        <v>109074</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>159</v>
@@ -3074,10 +3074,10 @@
         <v>161</v>
       </c>
       <c r="M7" s="7">
-        <v>476</v>
+        <v>332</v>
       </c>
       <c r="N7" s="7">
-        <v>343828</v>
+        <v>227040</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>162</v>
@@ -3095,10 +3095,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>54906</v>
+        <v>15699</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>165</v>
@@ -3110,10 +3110,10 @@
         <v>167</v>
       </c>
       <c r="H8" s="7">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>48047</v>
+        <v>20730</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>168</v>
@@ -3125,10 +3125,10 @@
         <v>170</v>
       </c>
       <c r="M8" s="7">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="N8" s="7">
-        <v>102954</v>
+        <v>36430</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>171</v>
@@ -3146,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="D9" s="7">
-        <v>224600</v>
+        <v>133666</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -3161,10 +3161,10 @@
         <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>314</v>
+        <v>196</v>
       </c>
       <c r="I9" s="7">
-        <v>222182</v>
+        <v>129804</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -3176,10 +3176,10 @@
         <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>618</v>
+        <v>387</v>
       </c>
       <c r="N9" s="7">
-        <v>446782</v>
+        <v>263470</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -3199,10 +3199,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="D10" s="7">
-        <v>117967</v>
+        <v>169694</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>174</v>
@@ -3214,10 +3214,10 @@
         <v>176</v>
       </c>
       <c r="H10" s="7">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="I10" s="7">
-        <v>109074</v>
+        <v>174135</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>177</v>
@@ -3229,10 +3229,10 @@
         <v>179</v>
       </c>
       <c r="M10" s="7">
-        <v>332</v>
+        <v>476</v>
       </c>
       <c r="N10" s="7">
-        <v>227040</v>
+        <v>343828</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>180</v>
@@ -3250,10 +3250,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7">
-        <v>15699</v>
+        <v>54906</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>183</v>
@@ -3265,10 +3265,10 @@
         <v>185</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I11" s="7">
-        <v>20730</v>
+        <v>48047</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>186</v>
@@ -3280,10 +3280,10 @@
         <v>188</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="N11" s="7">
-        <v>36430</v>
+        <v>102954</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>189</v>
@@ -3301,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="D12" s="7">
-        <v>133666</v>
+        <v>224600</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -3316,10 +3316,10 @@
         <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>196</v>
+        <v>314</v>
       </c>
       <c r="I12" s="7">
-        <v>129804</v>
+        <v>222182</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -3331,10 +3331,10 @@
         <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>387</v>
+        <v>618</v>
       </c>
       <c r="N12" s="7">
-        <v>263470</v>
+        <v>446782</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -3517,7 +3517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF18685-58B7-44AF-96AD-41F7E9DC1A33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC156A9-6F56-438F-B65A-6663455882A4}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3790,10 +3790,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="D7" s="7">
-        <v>206689</v>
+        <v>87724</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>229</v>
@@ -3805,10 +3805,10 @@
         <v>231</v>
       </c>
       <c r="H7" s="7">
-        <v>251</v>
+        <v>118</v>
       </c>
       <c r="I7" s="7">
-        <v>180162</v>
+        <v>84038</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>232</v>
@@ -3820,10 +3820,10 @@
         <v>234</v>
       </c>
       <c r="M7" s="7">
-        <v>498</v>
+        <v>231</v>
       </c>
       <c r="N7" s="7">
-        <v>386852</v>
+        <v>171762</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>235</v>
@@ -3841,10 +3841,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
-        <v>112948</v>
+        <v>35996</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>238</v>
@@ -3856,10 +3856,10 @@
         <v>240</v>
       </c>
       <c r="H8" s="7">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="I8" s="7">
-        <v>92179</v>
+        <v>27494</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>241</v>
@@ -3871,10 +3871,10 @@
         <v>243</v>
       </c>
       <c r="M8" s="7">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="N8" s="7">
-        <v>205126</v>
+        <v>63490</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>244</v>
@@ -3892,10 +3892,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>377</v>
+        <v>155</v>
       </c>
       <c r="D9" s="7">
-        <v>319637</v>
+        <v>123720</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -3907,10 +3907,10 @@
         <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>368</v>
+        <v>154</v>
       </c>
       <c r="I9" s="7">
-        <v>272341</v>
+        <v>111532</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -3922,10 +3922,10 @@
         <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>745</v>
+        <v>309</v>
       </c>
       <c r="N9" s="7">
-        <v>591978</v>
+        <v>235252</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -3945,10 +3945,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="D10" s="7">
-        <v>87724</v>
+        <v>206689</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>247</v>
@@ -3960,10 +3960,10 @@
         <v>249</v>
       </c>
       <c r="H10" s="7">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="I10" s="7">
-        <v>84038</v>
+        <v>180162</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>250</v>
@@ -3975,10 +3975,10 @@
         <v>252</v>
       </c>
       <c r="M10" s="7">
-        <v>231</v>
+        <v>498</v>
       </c>
       <c r="N10" s="7">
-        <v>171762</v>
+        <v>386852</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>253</v>
@@ -3996,10 +3996,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D11" s="7">
-        <v>35996</v>
+        <v>112948</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>256</v>
@@ -4011,10 +4011,10 @@
         <v>258</v>
       </c>
       <c r="H11" s="7">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="I11" s="7">
-        <v>27494</v>
+        <v>92179</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>259</v>
@@ -4026,10 +4026,10 @@
         <v>261</v>
       </c>
       <c r="M11" s="7">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="N11" s="7">
-        <v>63490</v>
+        <v>205126</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>262</v>
@@ -4047,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>155</v>
+        <v>377</v>
       </c>
       <c r="D12" s="7">
-        <v>123720</v>
+        <v>319637</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -4062,10 +4062,10 @@
         <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="I12" s="7">
-        <v>111532</v>
+        <v>272341</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -4077,10 +4077,10 @@
         <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>309</v>
+        <v>745</v>
       </c>
       <c r="N12" s="7">
-        <v>235252</v>
+        <v>591978</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>

--- a/data/trans_orig/IP19C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55558530-2FDF-45A8-BA81-8E755C4ACCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66779F7-BD1E-4B65-A7D6-12DEF092D6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C2D975EE-265E-4213-AC10-EF0EDCA2FE8B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CC264B8-3E66-4ED0-8078-AE6307EB2DA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="339">
   <si>
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -68,826 +68,994 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>55,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por limpieza de boca en 2012 (Tasa respuesta: 48,93%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por limpieza de boca en 2012 (Tasa respuesta: 48,93%)</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
   <si>
     <t>94,24%</t>
   </si>
   <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2015 (Tasa respuesta: 48,78%)</t>
   </si>
   <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
   </si>
   <si>
     <t>80,45%</t>
   </si>
   <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>68,53%</t>
   </si>
   <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
 </sst>
 </file>
@@ -898,7 +1066,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -994,39 +1162,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1078,7 +1246,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1189,13 +1357,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1204,6 +1365,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1268,19 +1436,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F14E24E-A2BD-405B-B9A4-520E9BABB6C2}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A15A15-9231-461B-A1D4-FECF93183382}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1397,10 +1585,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>19147</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1412,85 +1600,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>21782</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>64</v>
-      </c>
-      <c r="N4" s="7">
-        <v>40929</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1893</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>488</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>448</v>
+        <v>3906</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>936</v>
+        <v>5799</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1499,153 +1687,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>19635</v>
+        <v>1893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>22230</v>
+        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>41865</v>
+        <v>5799</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>105778</v>
+        <v>2494</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2940</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5433</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="7">
-        <v>148</v>
-      </c>
-      <c r="I7" s="7">
-        <v>100211</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="7">
-        <v>309</v>
-      </c>
-      <c r="N7" s="7">
-        <v>205989</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="D8" s="7">
-        <v>5938</v>
+        <v>77924</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7">
+        <v>122</v>
+      </c>
+      <c r="I8" s="7">
+        <v>81395</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>241</v>
+      </c>
+      <c r="N8" s="7">
+        <v>159320</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="7">
-        <v>9</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5859</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="7">
-        <v>18</v>
-      </c>
-      <c r="N8" s="7">
-        <v>11797</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,153 +1842,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="D9" s="7">
-        <v>111716</v>
+        <v>80418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="I9" s="7">
-        <v>106070</v>
+        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="N9" s="7">
-        <v>217786</v>
+        <v>164753</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>318</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>212665</v>
+        <v>8706</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="7">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7256</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>24</v>
+      </c>
+      <c r="N10" s="7">
+        <v>15962</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="7">
-        <v>301</v>
-      </c>
-      <c r="I10" s="7">
-        <v>203196</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="7">
-        <v>619</v>
-      </c>
-      <c r="N10" s="7">
-        <v>415861</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="D11" s="7">
-        <v>17715</v>
+        <v>97013</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="7">
+        <v>137</v>
+      </c>
+      <c r="I11" s="7">
+        <v>91937</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>282</v>
+      </c>
+      <c r="N11" s="7">
+        <v>188950</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="7">
-        <v>29</v>
-      </c>
-      <c r="I11" s="7">
-        <v>19434</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="7">
-        <v>55</v>
-      </c>
-      <c r="N11" s="7">
-        <v>37149</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,153 +1997,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>344</v>
+        <v>158</v>
       </c>
       <c r="D12" s="7">
-        <v>230380</v>
+        <v>105719</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="I12" s="7">
-        <v>222630</v>
+        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>674</v>
+        <v>306</v>
       </c>
       <c r="N12" s="7">
-        <v>453010</v>
+        <v>204912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>509</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>337590</v>
+        <v>12942</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7">
+        <v>15546</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>42</v>
+      </c>
+      <c r="N13" s="7">
+        <v>28487</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="7">
-        <v>483</v>
-      </c>
-      <c r="I13" s="7">
-        <v>325189</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>992</v>
-      </c>
-      <c r="N13" s="7">
-        <v>662779</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="D14" s="7">
-        <v>24141</v>
+        <v>160759</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="7">
+        <v>218</v>
+      </c>
+      <c r="I14" s="7">
+        <v>147951</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>460</v>
+      </c>
+      <c r="N14" s="7">
+        <v>308710</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="7">
-        <v>39</v>
-      </c>
-      <c r="I14" s="7">
-        <v>25741</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="7">
-        <v>75</v>
-      </c>
-      <c r="N14" s="7">
-        <v>49882</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,55 +2152,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>261</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173701</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>241</v>
+      </c>
+      <c r="I15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>502</v>
+      </c>
+      <c r="N15" s="7">
+        <v>337197</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7">
+        <v>24141</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="7">
+        <v>39</v>
+      </c>
+      <c r="I16" s="7">
+        <v>25741</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="7">
+        <v>75</v>
+      </c>
+      <c r="N16" s="7">
+        <v>49882</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>509</v>
+      </c>
+      <c r="D17" s="7">
+        <v>337590</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
+        <v>483</v>
+      </c>
+      <c r="I17" s="7">
+        <v>325189</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="7">
+        <v>992</v>
+      </c>
+      <c r="N17" s="7">
+        <v>662779</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>361731</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>522</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>350930</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1067</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>712661</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>26</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2025,8 +2374,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BA92AB-001C-4986-8C41-5074BFD41ACB}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5CEA1-FF09-497B-B8B2-BF78639B6989}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2042,7 +2391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2143,100 +2492,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13707</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>14497</v>
+        <v>627</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M4" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>28203</v>
+        <v>627</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>1196</v>
+        <v>2671</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>1196</v>
+        <v>3340</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,153 +2594,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>13707</v>
+        <v>669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>15693</v>
+        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>29399</v>
+        <v>3967</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>126448</v>
+        <v>3454</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="H7" s="7">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>120843</v>
+        <v>2578</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="M7" s="7">
-        <v>342</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>247292</v>
+        <v>6032</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="D8" s="7">
-        <v>6230</v>
+        <v>88610</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="7">
         <v>105</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
       <c r="I8" s="7">
-        <v>3535</v>
+        <v>74363</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="N8" s="7">
-        <v>9765</v>
+        <v>162972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,153 +2749,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="D9" s="7">
-        <v>132678</v>
+        <v>92064</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="I9" s="7">
-        <v>124378</v>
+        <v>76941</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>355</v>
+        <v>233</v>
       </c>
       <c r="N9" s="7">
-        <v>257057</v>
+        <v>169004</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>202636</v>
+        <v>7674</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>283</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>197543</v>
+        <v>4474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>582</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>400179</v>
+        <v>12149</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="D11" s="7">
-        <v>16981</v>
+        <v>124412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="I11" s="7">
-        <v>15630</v>
+        <v>120612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>47</v>
+        <v>351</v>
       </c>
       <c r="N11" s="7">
-        <v>32611</v>
+        <v>245023</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,153 +2904,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="D12" s="7">
-        <v>219617</v>
+        <v>132086</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="I12" s="7">
-        <v>213173</v>
+        <v>125086</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>629</v>
+        <v>368</v>
       </c>
       <c r="N12" s="7">
-        <v>432790</v>
+        <v>257172</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>491</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>342791</v>
+        <v>12083</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>474</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>332883</v>
+        <v>12682</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>965</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>675674</v>
+        <v>24765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="D14" s="7">
-        <v>23211</v>
+        <v>129100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="I14" s="7">
-        <v>20361</v>
+        <v>135238</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
-        <v>62</v>
+        <v>384</v>
       </c>
       <c r="N14" s="7">
-        <v>43572</v>
+        <v>264338</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,55 +3059,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>209</v>
+      </c>
+      <c r="D15" s="7">
+        <v>141183</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>211</v>
+      </c>
+      <c r="I15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>420</v>
+      </c>
+      <c r="N15" s="7">
+        <v>289103</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7">
+        <v>23211</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="7">
+        <v>29</v>
+      </c>
+      <c r="I16" s="7">
+        <v>20361</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" s="7">
+        <v>62</v>
+      </c>
+      <c r="N16" s="7">
+        <v>43572</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>491</v>
+      </c>
+      <c r="D17" s="7">
+        <v>342791</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="7">
+        <v>474</v>
+      </c>
+      <c r="I17" s="7">
+        <v>332883</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" s="7">
+        <v>965</v>
+      </c>
+      <c r="N17" s="7">
+        <v>675674</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>524</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>366002</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>503</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>353244</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1027</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>719246</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>26</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2771,8 +3281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65653BC-8158-4565-8281-9423464CBBF2}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D06B9B8-CF61-4944-BEE6-BE1DF72731A9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2788,7 +3298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2889,46 +3399,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>8410</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>10631</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="M4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>19041</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2937,52 +3447,52 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1333</v>
+        <v>1284</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>1333</v>
+        <v>1819</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,153 +3501,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>9743</v>
+        <v>1284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>10631</v>
+        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>20374</v>
+        <v>1819</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>117967</v>
+        <v>8486</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>109074</v>
+        <v>8060</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
-        <v>332</v>
+        <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>227040</v>
+        <v>16547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="D8" s="7">
-        <v>15699</v>
+        <v>73643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="I8" s="7">
-        <v>20730</v>
+        <v>60000</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="N8" s="7">
-        <v>36430</v>
+        <v>133642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,153 +3656,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="D9" s="7">
-        <v>133666</v>
+        <v>82129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="I9" s="7">
-        <v>129804</v>
+        <v>68060</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>387</v>
+        <v>222</v>
       </c>
       <c r="N9" s="7">
-        <v>263470</v>
+        <v>150189</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>231</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>169694</v>
+        <v>26956</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>174135</v>
+        <v>26921</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>476</v>
+        <v>75</v>
       </c>
       <c r="N10" s="7">
-        <v>343828</v>
+        <v>53877</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="D11" s="7">
-        <v>54906</v>
+        <v>122385</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="I11" s="7">
-        <v>48047</v>
+        <v>121996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
-        <v>142</v>
+        <v>346</v>
       </c>
       <c r="N11" s="7">
-        <v>102954</v>
+        <v>244381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,153 +3811,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>224600</v>
+        <v>149341</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>222182</v>
+        <v>148917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>618</v>
+        <v>421</v>
       </c>
       <c r="N12" s="7">
-        <v>446782</v>
+        <v>298258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>412</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>296070</v>
+        <v>36496</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
-        <v>426</v>
+        <v>49</v>
       </c>
       <c r="I13" s="7">
-        <v>293840</v>
+        <v>33797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
-        <v>838</v>
+        <v>98</v>
       </c>
       <c r="N13" s="7">
-        <v>589910</v>
+        <v>70293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="D14" s="7">
-        <v>71938</v>
+        <v>98759</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="I14" s="7">
-        <v>68778</v>
+        <v>111308</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
-        <v>199</v>
+        <v>293</v>
       </c>
       <c r="N14" s="7">
-        <v>140716</v>
+        <v>210067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,55 +3966,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>183</v>
+      </c>
+      <c r="D15" s="7">
+        <v>135255</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>208</v>
+      </c>
+      <c r="I15" s="7">
+        <v>145105</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>391</v>
+      </c>
+      <c r="N15" s="7">
+        <v>280360</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>98</v>
+      </c>
+      <c r="D16" s="7">
+        <v>71938</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="7">
+        <v>101</v>
+      </c>
+      <c r="I16" s="7">
+        <v>68778</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M16" s="7">
+        <v>199</v>
+      </c>
+      <c r="N16" s="7">
+        <v>140716</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>412</v>
+      </c>
+      <c r="D17" s="7">
+        <v>296070</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="7">
+        <v>426</v>
+      </c>
+      <c r="I17" s="7">
+        <v>293840</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M17" s="7">
+        <v>838</v>
+      </c>
+      <c r="N17" s="7">
+        <v>589910</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>510</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>368008</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>527</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>362618</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1037</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>730626</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>26</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3517,8 +4188,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC156A9-6F56-438F-B65A-6663455882A4}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F651299E-6577-43E2-908F-4241F456945A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3534,7 +4205,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3635,100 +4306,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>13706</v>
+        <v>1943</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>9942</v>
+        <v>1939</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="M4" s="7">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>23648</v>
+        <v>3882</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>7739</v>
+        <v>3341</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="H5" s="7">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3978</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M5" s="7">
         <v>12</v>
       </c>
-      <c r="I5" s="7">
-        <v>6209</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M5" s="7">
-        <v>26</v>
-      </c>
       <c r="N5" s="7">
-        <v>13948</v>
+        <v>7319</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,153 +4408,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>21445</v>
+        <v>5284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>16151</v>
+        <v>5917</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>37596</v>
+        <v>11201</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>87724</v>
+        <v>27134</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>84038</v>
+        <v>14913</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="N7" s="7">
-        <v>171762</v>
+        <v>42047</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D8" s="7">
-        <v>35996</v>
+        <v>46248</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="H8" s="7">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="I8" s="7">
-        <v>27494</v>
+        <v>52157</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="M8" s="7">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="N8" s="7">
-        <v>63490</v>
+        <v>98405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,153 +4563,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7">
-        <v>123720</v>
+        <v>73382</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="I9" s="7">
-        <v>111532</v>
+        <v>67070</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>235252</v>
+        <v>140452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>206689</v>
+        <v>37794</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>180162</v>
+        <v>40048</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
-        <v>498</v>
+        <v>96</v>
       </c>
       <c r="N10" s="7">
-        <v>386852</v>
+        <v>77842</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D11" s="7">
-        <v>112948</v>
+        <v>119413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="H11" s="7">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I11" s="7">
-        <v>92179</v>
+        <v>84076</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="M11" s="7">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="N11" s="7">
-        <v>205126</v>
+        <v>203489</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,153 +4718,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>377</v>
+        <v>186</v>
       </c>
       <c r="D12" s="7">
-        <v>319637</v>
+        <v>157207</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>272341</v>
+        <v>124124</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>745</v>
+        <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>591978</v>
+        <v>281331</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>384</v>
+        <v>102</v>
       </c>
       <c r="D13" s="7">
-        <v>308120</v>
+        <v>89814</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="H13" s="7">
-        <v>389</v>
+        <v>87</v>
       </c>
       <c r="I13" s="7">
-        <v>274143</v>
+        <v>68980</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="M13" s="7">
-        <v>773</v>
+        <v>189</v>
       </c>
       <c r="N13" s="7">
-        <v>582262</v>
+        <v>158794</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D14" s="7">
-        <v>156683</v>
+        <v>139117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="I14" s="7">
-        <v>125881</v>
+        <v>133932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="M14" s="7">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="N14" s="7">
-        <v>282564</v>
+        <v>273049</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,55 +4873,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>268</v>
+      </c>
+      <c r="D15" s="7">
+        <v>228931</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>277</v>
+      </c>
+      <c r="I15" s="7">
+        <v>202912</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>545</v>
+      </c>
+      <c r="N15" s="7">
+        <v>431843</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>186</v>
+      </c>
+      <c r="D16" s="7">
+        <v>156683</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H16" s="7">
+        <v>165</v>
+      </c>
+      <c r="I16" s="7">
+        <v>125881</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M16" s="7">
+        <v>351</v>
+      </c>
+      <c r="N16" s="7">
+        <v>282564</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>384</v>
+      </c>
+      <c r="D17" s="7">
+        <v>308120</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H17" s="7">
+        <v>389</v>
+      </c>
+      <c r="I17" s="7">
+        <v>274143</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M17" s="7">
+        <v>773</v>
+      </c>
+      <c r="N17" s="7">
+        <v>582262</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>570</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>464803</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>554</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>400024</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1124</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>864826</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>26</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP19C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C02-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66779F7-BD1E-4B65-A7D6-12DEF092D6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34BD4A44-F227-4850-8B95-ED9E08261524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CC264B8-3E66-4ED0-8078-AE6307EB2DA8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A2207D35-D242-4554-8186-AC3B0B4454BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="337">
   <si>
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -113,55 +113,55 @@
     <t>3,1%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -170,55 +170,55 @@
     <t>8,23%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>91,77%</t>
   </si>
   <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>92,21%</t>
   </si>
   <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -227,346 +227,352 @@
     <t>7,45%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por limpieza de boca en 2012 (Tasa respuesta: 48,93%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por limpieza de boca en 2012 (Tasa respuesta: 48,93%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por limpieza de boca en 2015 (Tasa respuesta: 48,78%)</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por limpieza de boca en 2016 (Tasa respuesta: 48,78%)</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -578,211 +584,211 @@
     <t>10,33%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>6,78%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2023 (Tasa respuesta: 58,54%)</t>
@@ -791,271 +797,259 @@
     <t>36,76%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
   </si>
   <si>
     <t>32,77%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
   </si>
   <si>
     <t>34,65%</t>
   </si>
   <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
   </si>
   <si>
     <t>63,24%</t>
   </si>
   <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>67,23%</t>
   </si>
   <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
   <si>
     <t>36,98%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
   </si>
   <si>
     <t>29,94%</t>
   </si>
   <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
   </si>
   <si>
     <t>63,02%</t>
   </si>
   <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
   </si>
   <si>
     <t>77,76%</t>
   </si>
   <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>24,04%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
+    <t>32,46%</t>
   </si>
   <si>
     <t>75,96%</t>
   </si>
   <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
   </si>
   <si>
     <t>72,33%</t>
   </si>
   <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
+    <t>67,54%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
   </si>
   <si>
     <t>34,0%</t>
   </si>
   <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
   </si>
   <si>
     <t>36,77%</t>
   </si>
   <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
+    <t>41,47%</t>
   </si>
   <si>
     <t>60,77%</t>
   </si>
   <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
   </si>
   <si>
     <t>66,0%</t>
   </si>
   <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
   </si>
   <si>
     <t>63,23%</t>
   </si>
   <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
+    <t>58,53%</t>
   </si>
   <si>
     <t>33,71%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
   </si>
   <si>
     <t>31,47%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>68,53%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A15A15-9231-461B-A1D4-FECF93183382}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB42D3F8-3D06-4305-8DD8-FFEE01662797}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2374,7 +2368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5CEA1-FF09-497B-B8B2-BF78639B6989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92525B71-295E-4333-8BFB-D3DD620DC964}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2674,7 +2668,7 @@
         <v>113</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2683,13 +2677,13 @@
         <v>6032</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2698,13 @@
         <v>88610</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H8" s="7">
         <v>105</v>
@@ -2719,13 +2713,13 @@
         <v>74363</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7">
         <v>225</v>
@@ -2734,13 +2728,13 @@
         <v>162972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2802,13 @@
         <v>7674</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2823,13 +2817,13 @@
         <v>4474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2838,13 +2832,13 @@
         <v>12149</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2853,13 @@
         <v>124412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H11" s="7">
         <v>172</v>
@@ -2874,13 +2868,13 @@
         <v>120612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>351</v>
@@ -2889,13 +2883,13 @@
         <v>245023</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2957,13 @@
         <v>12083</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2978,13 +2972,13 @@
         <v>12682</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -2993,13 +2987,13 @@
         <v>24765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3008,13 @@
         <v>129100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>193</v>
@@ -3148,13 +3142,13 @@
         <v>43572</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3163,13 @@
         <v>342791</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>474</v>
@@ -3184,13 +3178,13 @@
         <v>332883</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>965</v>
@@ -3199,13 +3193,13 @@
         <v>675674</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,7 +3275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D06B9B8-CF61-4944-BEE6-BE1DF72731A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA6D36C-8D87-44BD-AE58-30A5370E1E94}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3298,7 +3292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3411,7 +3405,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3459,7 +3453,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3560,13 +3554,13 @@
         <v>8486</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3575,13 +3569,13 @@
         <v>8060</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3590,13 +3584,13 @@
         <v>16547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3605,13 @@
         <v>73643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>91</v>
@@ -3626,13 +3620,13 @@
         <v>60000</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>196</v>
@@ -3641,13 +3635,13 @@
         <v>133642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4034,13 @@
         <v>68778</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -4055,13 +4049,13 @@
         <v>140716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4070,13 @@
         <v>296070</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>426</v>
@@ -4091,13 +4085,13 @@
         <v>293840</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>838</v>
@@ -4106,13 +4100,13 @@
         <v>589910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,7 +4182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F651299E-6577-43E2-908F-4241F456945A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EE566C-0583-4794-8316-4BC44F677C01}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4205,7 +4199,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4312,13 +4306,13 @@
         <v>1943</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4327,13 +4321,13 @@
         <v>1939</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4342,13 +4336,13 @@
         <v>3882</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4357,13 @@
         <v>3341</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4378,13 +4372,13 @@
         <v>3978</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4393,13 +4387,13 @@
         <v>7319</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4461,13 @@
         <v>27134</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -4482,13 +4476,13 @@
         <v>14913</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -4497,13 +4491,13 @@
         <v>42047</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4512,13 @@
         <v>46248</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -4533,13 +4527,13 @@
         <v>52157</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M8" s="7">
         <v>152</v>
@@ -4548,13 +4542,13 @@
         <v>98405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4616,13 @@
         <v>37794</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -4637,13 +4631,13 @@
         <v>40048</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
@@ -4652,13 +4646,13 @@
         <v>77842</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4667,13 @@
         <v>119413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H11" s="7">
         <v>112</v>
@@ -4688,13 +4682,13 @@
         <v>84076</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M11" s="7">
         <v>253</v>
@@ -4703,13 +4697,13 @@
         <v>203489</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,10 +4804,10 @@
         <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4822,13 @@
         <v>139117</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H14" s="7">
         <v>190</v>
@@ -4843,13 +4837,13 @@
         <v>133932</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M14" s="7">
         <v>356</v>
@@ -4858,13 +4852,13 @@
         <v>273049</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4926,13 @@
         <v>156683</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H16" s="7">
         <v>165</v>
@@ -4947,13 +4941,13 @@
         <v>125881</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M16" s="7">
         <v>351</v>
@@ -4962,13 +4956,13 @@
         <v>282564</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +4977,13 @@
         <v>308120</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H17" s="7">
         <v>389</v>
@@ -4998,13 +4992,13 @@
         <v>274143</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M17" s="7">
         <v>773</v>
@@ -5013,13 +5007,13 @@
         <v>582262</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19C02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34BD4A44-F227-4850-8B95-ED9E08261524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A92904BB-428B-4F41-8285-2C9F76074F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A2207D35-D242-4554-8186-AC3B0B4454BC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E15C0352-7A4A-4B0F-AF97-62EF6F8809B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="332">
   <si>
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>26,42%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>18,74%</t>
   </si>
   <si>
@@ -95,961 +95,946 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
     <t>81,26%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>0,78%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por limpieza de boca en 2012 (Tasa respuesta: 48,93%)</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>92,82%</t>
   </si>
   <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por limpieza de boca en 2012 (Tasa respuesta: 48,93%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
   </si>
   <si>
     <t>8,56%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por limpieza de boca en 2016 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por limpieza de boca en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por limpieza de boca en 2016 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por limpieza de boca en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB42D3F8-3D06-4305-8DD8-FFEE01662797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455F1474-2481-4421-9C7A-AF792F8CD4B2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1630,10 +1615,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>1893</v>
+        <v>3906</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1645,10 +1630,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>3906</v>
+        <v>1893</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1681,25 +1666,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3906</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1893</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3906</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1734,10 +1719,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>2494</v>
+        <v>2940</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1749,10 +1734,10 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2940</v>
+        <v>2494</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1785,10 +1770,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D8" s="7">
-        <v>77924</v>
+        <v>81395</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -1800,10 +1785,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I8" s="7">
-        <v>81395</v>
+        <v>77924</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
@@ -1836,25 +1821,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7">
+        <v>84335</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>123</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>80418</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>127</v>
-      </c>
-      <c r="I9" s="7">
-        <v>84335</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1889,10 +1874,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>8706</v>
+        <v>7256</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1904,10 +1889,10 @@
         <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>7256</v>
+        <v>8706</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>45</v>
@@ -1940,10 +1925,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D11" s="7">
-        <v>97013</v>
+        <v>91937</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>51</v>
@@ -1955,10 +1940,10 @@
         <v>53</v>
       </c>
       <c r="H11" s="7">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="I11" s="7">
-        <v>91937</v>
+        <v>97013</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>54</v>
@@ -1991,25 +1976,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>148</v>
+      </c>
+      <c r="D12" s="7">
+        <v>99193</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>158</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>105719</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>148</v>
-      </c>
-      <c r="I12" s="7">
-        <v>99193</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2044,10 +2029,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>12942</v>
+        <v>15546</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>61</v>
@@ -2059,10 +2044,10 @@
         <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>15546</v>
+        <v>12942</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>64</v>
@@ -2095,10 +2080,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D14" s="7">
-        <v>160759</v>
+        <v>147951</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>70</v>
@@ -2110,10 +2095,10 @@
         <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="I14" s="7">
-        <v>147951</v>
+        <v>160759</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>73</v>
@@ -2146,25 +2131,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>241</v>
+      </c>
+      <c r="D15" s="7">
+        <v>163497</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>261</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>173701</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>241</v>
-      </c>
-      <c r="I15" s="7">
-        <v>163497</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2199,10 +2184,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>24141</v>
+        <v>25741</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>79</v>
@@ -2214,10 +2199,10 @@
         <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>25741</v>
+        <v>24141</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>82</v>
@@ -2250,10 +2235,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="D17" s="7">
-        <v>337590</v>
+        <v>325189</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>88</v>
@@ -2265,10 +2250,10 @@
         <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>483</v>
+        <v>509</v>
       </c>
       <c r="I17" s="7">
-        <v>325189</v>
+        <v>337590</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>91</v>
@@ -2301,25 +2286,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>522</v>
+      </c>
+      <c r="D18" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>545</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>361731</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>522</v>
-      </c>
-      <c r="I18" s="7">
-        <v>350930</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2368,7 +2353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92525B71-295E-4333-8BFB-D3DD620DC964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6D0F31-E533-4849-B6F5-A697B7D5E743}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2486,31 +2471,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>627</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>627</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>101</v>
@@ -2537,34 +2522,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2671</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>669</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2671</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -2588,25 +2573,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3298</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>669</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3298</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2644,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>3454</v>
+        <v>2578</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>109</v>
@@ -2659,7 +2644,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2578</v>
+        <v>3454</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>112</v>
@@ -2692,10 +2677,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D8" s="7">
-        <v>88610</v>
+        <v>74363</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>118</v>
@@ -2707,10 +2692,10 @@
         <v>120</v>
       </c>
       <c r="H8" s="7">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="I8" s="7">
-        <v>74363</v>
+        <v>88610</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>121</v>
@@ -2743,25 +2728,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>109</v>
+      </c>
+      <c r="D9" s="7">
+        <v>76941</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>124</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>92064</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>109</v>
-      </c>
-      <c r="I9" s="7">
-        <v>76941</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2796,10 +2781,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>7674</v>
+        <v>4474</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>127</v>
@@ -2811,10 +2796,10 @@
         <v>129</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>4474</v>
+        <v>7674</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>130</v>
@@ -2847,10 +2832,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D11" s="7">
-        <v>124412</v>
+        <v>120612</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>136</v>
@@ -2862,10 +2847,10 @@
         <v>138</v>
       </c>
       <c r="H11" s="7">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="I11" s="7">
-        <v>120612</v>
+        <v>124412</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>139</v>
@@ -2898,25 +2883,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>178</v>
+      </c>
+      <c r="D12" s="7">
+        <v>125086</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>190</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>132086</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>178</v>
-      </c>
-      <c r="I12" s="7">
-        <v>125086</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2954,31 +2939,31 @@
         <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>12083</v>
+        <v>12682</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>12682</v>
+        <v>12083</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -2987,13 +2972,13 @@
         <v>24765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,34 +2987,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>193</v>
+      </c>
+      <c r="D14" s="7">
+        <v>135238</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="7">
         <v>191</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>129100</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="7">
-        <v>193</v>
-      </c>
-      <c r="I14" s="7">
-        <v>135238</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>384</v>
@@ -3038,13 +3023,13 @@
         <v>264338</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,25 +3038,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>211</v>
+      </c>
+      <c r="D15" s="7">
+        <v>147920</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>209</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141183</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>211</v>
-      </c>
-      <c r="I15" s="7">
-        <v>147920</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3106,34 +3091,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7">
+        <v>20361</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="7">
         <v>33</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>23211</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="7">
-        <v>29</v>
-      </c>
-      <c r="I16" s="7">
-        <v>20361</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -3142,13 +3127,13 @@
         <v>43572</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,28 +3142,28 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>474</v>
+      </c>
+      <c r="D17" s="7">
+        <v>332883</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="7">
         <v>491</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>342791</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H17" s="7">
-        <v>474</v>
-      </c>
-      <c r="I17" s="7">
-        <v>332883</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>172</v>
@@ -3208,25 +3193,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>503</v>
+      </c>
+      <c r="D18" s="7">
+        <v>353244</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>524</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>366002</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>503</v>
-      </c>
-      <c r="I18" s="7">
-        <v>353244</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3275,7 +3260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA6D36C-8D87-44BD-AE58-30A5370E1E94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3EB1F0-CBEB-4C94-863B-7431AED949F6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3405,7 +3390,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3420,7 +3405,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3435,7 +3420,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,31 +3429,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1284</v>
+        <v>536</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>536</v>
+        <v>1284</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3483,7 +3468,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3495,25 +3480,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>536</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1284</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>536</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3551,7 +3536,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>8486</v>
+        <v>8060</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>180</v>
@@ -3566,16 +3551,16 @@
         <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>8060</v>
+        <v>8486</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3584,13 +3569,13 @@
         <v>16547</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,34 +3584,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>91</v>
+      </c>
+      <c r="D8" s="7">
+        <v>60000</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="7">
         <v>105</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>73643</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H8" s="7">
-        <v>91</v>
-      </c>
-      <c r="I8" s="7">
-        <v>60000</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="M8" s="7">
         <v>196</v>
@@ -3635,13 +3620,13 @@
         <v>133642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,25 +3635,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>104</v>
+      </c>
+      <c r="D9" s="7">
+        <v>68060</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>118</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>82129</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>104</v>
-      </c>
-      <c r="I9" s="7">
-        <v>68060</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3703,34 +3688,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7">
+        <v>26921</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="7">
         <v>36</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>26956</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" s="7">
-        <v>39</v>
-      </c>
-      <c r="I10" s="7">
-        <v>26921</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -3739,13 +3724,13 @@
         <v>53877</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,34 +3739,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>175</v>
+      </c>
+      <c r="D11" s="7">
+        <v>121996</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="7">
         <v>171</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>122385</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H11" s="7">
-        <v>175</v>
-      </c>
-      <c r="I11" s="7">
-        <v>121996</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
         <v>346</v>
@@ -3790,13 +3775,13 @@
         <v>244381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,25 +3790,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>214</v>
+      </c>
+      <c r="D12" s="7">
+        <v>148917</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>207</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>149341</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>214</v>
-      </c>
-      <c r="I12" s="7">
-        <v>148917</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3861,31 +3846,31 @@
         <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>36496</v>
+        <v>33797</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
       </c>
       <c r="I13" s="7">
-        <v>33797</v>
+        <v>36496</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -3894,13 +3879,13 @@
         <v>70293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,34 +3894,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>159</v>
+      </c>
+      <c r="D14" s="7">
+        <v>111308</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="7">
         <v>134</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>98759</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H14" s="7">
-        <v>159</v>
-      </c>
-      <c r="I14" s="7">
-        <v>111308</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>293</v>
@@ -3945,13 +3930,13 @@
         <v>210067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,25 +3945,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>208</v>
+      </c>
+      <c r="D15" s="7">
+        <v>145105</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>183</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>135255</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>208</v>
-      </c>
-      <c r="I15" s="7">
-        <v>145105</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4013,34 +3998,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>101</v>
+      </c>
+      <c r="D16" s="7">
+        <v>68778</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="7">
         <v>98</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>71938</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H16" s="7">
-        <v>101</v>
-      </c>
-      <c r="I16" s="7">
-        <v>68778</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -4049,13 +4034,13 @@
         <v>140716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,34 +4049,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>426</v>
+      </c>
+      <c r="D17" s="7">
+        <v>293840</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="7">
         <v>412</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>296070</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H17" s="7">
-        <v>426</v>
-      </c>
-      <c r="I17" s="7">
-        <v>293840</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>838</v>
@@ -4100,13 +4085,13 @@
         <v>589910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,25 +4100,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>527</v>
+      </c>
+      <c r="D18" s="7">
+        <v>362618</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>510</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>368008</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>527</v>
-      </c>
-      <c r="I18" s="7">
-        <v>362618</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4182,7 +4167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EE566C-0583-4794-8316-4BC44F677C01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54847A39-E8CC-41EB-A3B2-B9CC8E1E2FF1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4199,7 +4184,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4300,49 +4285,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1847</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
-        <v>1943</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
       <c r="I4" s="7">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>3882</v>
+        <v>3782</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,49 +4336,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3950</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" s="7">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
-        <v>3341</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H5" s="7">
-        <v>7</v>
-      </c>
       <c r="I5" s="7">
-        <v>3978</v>
+        <v>3382</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>7319</v>
+        <v>7331</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,25 +4387,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5797</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
-        <v>5284</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>11</v>
-      </c>
       <c r="I6" s="7">
-        <v>5917</v>
+        <v>5316</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4435,7 +4420,7 @@
         <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>11201</v>
+        <v>11113</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4455,49 +4440,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7">
+        <v>13705</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" s="7">
         <v>36</v>
       </c>
-      <c r="D7" s="7">
-        <v>27134</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H7" s="7">
-        <v>23</v>
-      </c>
       <c r="I7" s="7">
-        <v>14913</v>
+        <v>27744</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
       </c>
       <c r="N7" s="7">
-        <v>42047</v>
+        <v>41450</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,49 +4491,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>80</v>
+      </c>
+      <c r="D8" s="7">
+        <v>52491</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="7">
         <v>72</v>
       </c>
-      <c r="D8" s="7">
-        <v>46248</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H8" s="7">
-        <v>80</v>
-      </c>
       <c r="I8" s="7">
-        <v>52157</v>
+        <v>49387</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M8" s="7">
         <v>152</v>
       </c>
       <c r="N8" s="7">
-        <v>98405</v>
+        <v>101877</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,25 +4542,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>103</v>
+      </c>
+      <c r="D9" s="7">
+        <v>66196</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>108</v>
       </c>
-      <c r="D9" s="7">
-        <v>73382</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>103</v>
-      </c>
       <c r="I9" s="7">
-        <v>67070</v>
+        <v>77131</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4590,7 +4575,7 @@
         <v>211</v>
       </c>
       <c r="N9" s="7">
-        <v>140452</v>
+        <v>143327</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4610,49 +4595,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>51</v>
+      </c>
+      <c r="D10" s="7">
+        <v>36837</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" s="7">
         <v>45</v>
       </c>
-      <c r="D10" s="7">
-        <v>37794</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H10" s="7">
-        <v>51</v>
-      </c>
       <c r="I10" s="7">
-        <v>40048</v>
+        <v>35917</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>96</v>
       </c>
       <c r="N10" s="7">
-        <v>77842</v>
+        <v>72754</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,49 +4646,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>112</v>
+      </c>
+      <c r="D11" s="7">
+        <v>85066</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H11" s="7">
         <v>141</v>
       </c>
-      <c r="D11" s="7">
-        <v>119413</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H11" s="7">
-        <v>112</v>
-      </c>
       <c r="I11" s="7">
-        <v>84076</v>
+        <v>128871</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M11" s="7">
         <v>253</v>
       </c>
       <c r="N11" s="7">
-        <v>203489</v>
+        <v>213937</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,25 +4697,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>163</v>
+      </c>
+      <c r="D12" s="7">
+        <v>121903</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>186</v>
       </c>
-      <c r="D12" s="7">
-        <v>157207</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>163</v>
-      </c>
       <c r="I12" s="7">
-        <v>124124</v>
+        <v>164788</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4745,7 +4730,7 @@
         <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>281331</v>
+        <v>286691</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4765,49 +4750,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>87</v>
+      </c>
+      <c r="D13" s="7">
+        <v>63949</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H13" s="7">
         <v>102</v>
       </c>
-      <c r="D13" s="7">
-        <v>89814</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H13" s="7">
-        <v>87</v>
-      </c>
       <c r="I13" s="7">
-        <v>68980</v>
+        <v>86914</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
       </c>
       <c r="N13" s="7">
-        <v>158794</v>
+        <v>150864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,49 +4801,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>190</v>
+      </c>
+      <c r="D14" s="7">
+        <v>133788</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H14" s="7">
         <v>166</v>
       </c>
-      <c r="D14" s="7">
-        <v>139117</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H14" s="7">
-        <v>190</v>
-      </c>
       <c r="I14" s="7">
-        <v>133932</v>
+        <v>150294</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
         <v>356</v>
       </c>
       <c r="N14" s="7">
-        <v>273049</v>
+        <v>284081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,25 +4852,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>277</v>
+      </c>
+      <c r="D15" s="7">
+        <v>197737</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>268</v>
       </c>
-      <c r="D15" s="7">
-        <v>228931</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>277</v>
-      </c>
       <c r="I15" s="7">
-        <v>202912</v>
+        <v>237208</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4900,7 +4885,7 @@
         <v>545</v>
       </c>
       <c r="N15" s="7">
-        <v>431843</v>
+        <v>434945</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4920,49 +4905,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>165</v>
+      </c>
+      <c r="D16" s="7">
+        <v>116339</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H16" s="7">
         <v>186</v>
       </c>
-      <c r="D16" s="7">
-        <v>156683</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>152510</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H16" s="7">
-        <v>165</v>
-      </c>
-      <c r="I16" s="7">
-        <v>125881</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>351</v>
       </c>
       <c r="N16" s="7">
-        <v>282564</v>
+        <v>268849</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,49 +4956,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>389</v>
+      </c>
+      <c r="D17" s="7">
+        <v>275294</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H17" s="7">
         <v>384</v>
       </c>
-      <c r="D17" s="7">
-        <v>308120</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>331934</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H17" s="7">
-        <v>389</v>
-      </c>
-      <c r="I17" s="7">
-        <v>274143</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M17" s="7">
         <v>773</v>
       </c>
       <c r="N17" s="7">
-        <v>582262</v>
+        <v>607227</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,25 +5007,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>554</v>
+      </c>
+      <c r="D18" s="7">
+        <v>391633</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>570</v>
       </c>
-      <c r="D18" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>554</v>
-      </c>
       <c r="I18" s="7">
-        <v>400024</v>
+        <v>484444</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5055,7 +5040,7 @@
         <v>1124</v>
       </c>
       <c r="N18" s="7">
-        <v>864826</v>
+        <v>876076</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
